--- a/data/trans_orig/P1411-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>11400</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6096</v>
+        <v>6009</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21008</v>
+        <v>21831</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0260753409756333</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01394397324354355</v>
+        <v>0.01374496713159429</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04804959345457226</v>
+        <v>0.04993352639186332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6081</v>
+        <v>5445</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003347573730820756</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01933739011588132</v>
+        <v>0.01731687820421901</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -784,19 +784,19 @@
         <v>12453</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6350</v>
+        <v>7097</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23723</v>
+        <v>24121</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0165673250652915</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008447562992409693</v>
+        <v>0.009441986238503536</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03156044060906683</v>
+        <v>0.03209052164352905</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>425811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>416203</v>
+        <v>415380</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>431115</v>
+        <v>431202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9739246590243668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9519504065454277</v>
+        <v>0.9500664736081366</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9860560267564564</v>
+        <v>0.9862550328684057</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -834,7 +834,7 @@
         <v>313401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308373</v>
+        <v>309009</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -843,7 +843,7 @@
         <v>0.9966524262691793</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.980662609884119</v>
+        <v>0.9826831217957817</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -855,19 +855,19 @@
         <v>739212</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>727942</v>
+        <v>727544</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745315</v>
+        <v>744568</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9834326749347085</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9684395593909308</v>
+        <v>0.9679094783564707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9915524370075901</v>
+        <v>0.9905580137614963</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>8293</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3171</v>
+        <v>3944</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16890</v>
+        <v>17107</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01980087807008788</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007570537041025546</v>
+        <v>0.009416546317142067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04032968193791849</v>
+        <v>0.04084694644743262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>8293</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3289</v>
+        <v>4037</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18555</v>
+        <v>17648</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01095726641348633</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004346407619389979</v>
+        <v>0.005334513992116511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02451717749564245</v>
+        <v>0.02331924739051942</v>
       </c>
     </row>
     <row r="8">
@@ -1022,19 +1022,19 @@
         <v>410504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>401907</v>
+        <v>401690</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415626</v>
+        <v>414853</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9801991219299121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9596703180620816</v>
+        <v>0.9591530535525672</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9924294629589745</v>
+        <v>0.9905834536828579</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>305</v>
@@ -1056,19 +1056,19 @@
         <v>748515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>738253</v>
+        <v>739160</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>753519</v>
+        <v>752771</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9890427335865136</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9754828225043576</v>
+        <v>0.9766807526094806</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.99565359238061</v>
+        <v>0.9946654860078834</v>
       </c>
     </row>
     <row r="9">
@@ -1160,19 +1160,19 @@
         <v>11701</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6082</v>
+        <v>5437</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22130</v>
+        <v>22117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01858970410981989</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009662472636145159</v>
+        <v>0.00863751929976274</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03515986250985668</v>
+        <v>0.03513847593004723</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>11701</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6119</v>
+        <v>6260</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20725</v>
+        <v>23065</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01315351683139722</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006878511738968955</v>
+        <v>0.007037054733907443</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02329835481768683</v>
+        <v>0.02592884601584091</v>
       </c>
     </row>
     <row r="11">
@@ -1223,19 +1223,19 @@
         <v>617714</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>607285</v>
+        <v>607298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623333</v>
+        <v>623978</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9814102958901801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9648401374901436</v>
+        <v>0.9648615240699528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9903375273638551</v>
+        <v>0.9913624807002374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -1257,19 +1257,19 @@
         <v>877843</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>868819</v>
+        <v>866479</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>883425</v>
+        <v>883284</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9868464831686028</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9767016451823132</v>
+        <v>0.9740711539841592</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9931214882610311</v>
+        <v>0.9929629452660925</v>
       </c>
     </row>
     <row r="12">
@@ -1361,19 +1361,19 @@
         <v>32554</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22586</v>
+        <v>22611</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46719</v>
+        <v>45514</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0280878562710863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01948700409894795</v>
+        <v>0.01950908206005735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04030942636537079</v>
+        <v>0.03926968774410863</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1382,19 +1382,19 @@
         <v>6148</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2057</v>
+        <v>2102</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12280</v>
+        <v>13394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00803900580548751</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002690451436891005</v>
+        <v>0.00274919548700142</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01605789110811848</v>
+        <v>0.01751481467381114</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -1403,19 +1403,19 @@
         <v>38702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27873</v>
+        <v>27026</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53335</v>
+        <v>51572</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02011803233326589</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0144890769839129</v>
+        <v>0.01404863752896081</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02772457828612433</v>
+        <v>0.02680826626633901</v>
       </c>
     </row>
     <row r="14">
@@ -1432,19 +1432,19 @@
         <v>1126455</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1112290</v>
+        <v>1113495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1136423</v>
+        <v>1136398</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9719121437289137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9596905736346294</v>
+        <v>0.9607303122558916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.980512995901052</v>
+        <v>0.9804909179399427</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>704</v>
@@ -1453,19 +1453,19 @@
         <v>758574</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>752442</v>
+        <v>751328</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>762665</v>
+        <v>762620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9919609941945124</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9839421088918814</v>
+        <v>0.9824851853261887</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.997309548563109</v>
+        <v>0.9972508045129986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1756</v>
@@ -1474,19 +1474,19 @@
         <v>1885029</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1870396</v>
+        <v>1872159</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1895858</v>
+        <v>1896705</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9798819676667341</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9722754217138757</v>
+        <v>0.973191733733661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9855109230160877</v>
+        <v>0.9859513624710392</v>
       </c>
     </row>
     <row r="15">
@@ -1578,19 +1578,19 @@
         <v>5676</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2240</v>
+        <v>2209</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12413</v>
+        <v>12506</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0111172695614937</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004387750419900139</v>
+        <v>0.004325758402309632</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02431175973136397</v>
+        <v>0.02449286016372055</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1599,19 +1599,19 @@
         <v>14213</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7898</v>
+        <v>8182</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23245</v>
+        <v>24575</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01869537771662557</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01038819816813806</v>
+        <v>0.01076179811132052</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03057505652183469</v>
+        <v>0.03232534046561603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1620,19 +1620,19 @@
         <v>19890</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12220</v>
+        <v>11992</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30353</v>
+        <v>31166</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01565066242984079</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009615944175667883</v>
+        <v>0.00943601582732268</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02388398184943286</v>
+        <v>0.02452422630052079</v>
       </c>
     </row>
     <row r="17">
@@ -1649,19 +1649,19 @@
         <v>504920</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>498183</v>
+        <v>498090</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508356</v>
+        <v>508387</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9888827304385063</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9756882402686361</v>
+        <v>0.9755071398362796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9956122495800999</v>
+        <v>0.9956742415976904</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>689</v>
@@ -1670,19 +1670,19 @@
         <v>746033</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>737001</v>
+        <v>735671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>752348</v>
+        <v>752064</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9813046222833745</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9694249434781654</v>
+        <v>0.967674659534384</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9896118018318619</v>
+        <v>0.9892382018886795</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1171</v>
@@ -1691,19 +1691,19 @@
         <v>1250953</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1240490</v>
+        <v>1239677</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1258623</v>
+        <v>1258851</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9843493375701592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9761160181505671</v>
+        <v>0.9754757736994791</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9903840558243321</v>
+        <v>0.9905639841726773</v>
       </c>
     </row>
     <row r="18">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5089</v>
+        <v>4701</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00379325139942749</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01906780922757347</v>
+        <v>0.01761513127407284</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1816,19 +1816,19 @@
         <v>16763</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9607</v>
+        <v>9403</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26472</v>
+        <v>26198</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01512653723600593</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008669675734044403</v>
+        <v>0.008485417023964785</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02388832740678447</v>
+        <v>0.02364070113760719</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1837,19 +1837,19 @@
         <v>17775</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11214</v>
+        <v>10682</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27725</v>
+        <v>27366</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01292687302597095</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008155350664943373</v>
+        <v>0.00776876451886603</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02016311648304118</v>
+        <v>0.01990172241763381</v>
       </c>
     </row>
     <row r="20">
@@ -1866,7 +1866,7 @@
         <v>265870</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261793</v>
+        <v>262181</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>266882</v>
@@ -1875,7 +1875,7 @@
         <v>0.9962067486005725</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9809321907724265</v>
+        <v>0.9823848687259278</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1887,19 +1887,19 @@
         <v>1091406</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1081697</v>
+        <v>1081971</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1098562</v>
+        <v>1098766</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9848734627639941</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.976111672593215</v>
+        <v>0.9763592988623935</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9913303242659555</v>
+        <v>0.9915145829760352</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1291</v>
@@ -1908,19 +1908,19 @@
         <v>1357276</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1347326</v>
+        <v>1347685</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1363837</v>
+        <v>1364369</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.987073126974029</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9798368835169585</v>
+        <v>0.9800982775823661</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9918446493350564</v>
+        <v>0.9922312354811339</v>
       </c>
     </row>
     <row r="21">
@@ -2012,19 +2012,19 @@
         <v>70636</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53975</v>
+        <v>54046</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88461</v>
+        <v>90357</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02064241122742639</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.015773265312442</v>
+        <v>0.01579416663194814</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02585120681561604</v>
+        <v>0.02640541788771376</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -2033,19 +2033,19 @@
         <v>38176</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27537</v>
+        <v>27520</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53603</v>
+        <v>51785</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01076677887478633</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007766260853685462</v>
+        <v>0.007761408537322901</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01511747095369739</v>
+        <v>0.01460487872248814</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -2054,19 +2054,19 @@
         <v>108813</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88893</v>
+        <v>87902</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>131828</v>
+        <v>132566</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01561684518275141</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01275798599263899</v>
+        <v>0.01261580424943613</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01891998109995023</v>
+        <v>0.01902596834087863</v>
       </c>
     </row>
     <row r="23">
@@ -2083,19 +2083,19 @@
         <v>3351274</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3333449</v>
+        <v>3331553</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3367935</v>
+        <v>3367864</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9793575887725736</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9741487931843841</v>
+        <v>0.9735945821122858</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9842267346875582</v>
+        <v>0.9842058333680517</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3251</v>
@@ -2104,19 +2104,19 @@
         <v>3507556</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3492129</v>
+        <v>3493947</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3518195</v>
+        <v>3518212</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9892332211252137</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9848825290463027</v>
+        <v>0.9853951212775125</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9922337391463145</v>
+        <v>0.9922385914626772</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6392</v>
@@ -2125,19 +2125,19 @@
         <v>6858829</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6835814</v>
+        <v>6835076</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6878749</v>
+        <v>6879740</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9843831548172486</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9810800189000498</v>
+        <v>0.9809740316591212</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9872420140073612</v>
+        <v>0.9873841957505637</v>
       </c>
     </row>
     <row r="24">
@@ -2471,19 +2471,19 @@
         <v>4815</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1752</v>
+        <v>1827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11002</v>
+        <v>11451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01122034255602927</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004083196310712659</v>
+        <v>0.004258053135976853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02564096746681492</v>
+        <v>0.0266854580823199</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2492,19 +2492,19 @@
         <v>5479</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12131</v>
+        <v>12185</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01578585886520903</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005972673906185997</v>
+        <v>0.005982627477095282</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0349527068389015</v>
+        <v>0.03511000684927031</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2513,19 +2513,19 @@
         <v>10293</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4930</v>
+        <v>5249</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17533</v>
+        <v>18177</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01326181795366661</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006351335668149189</v>
+        <v>0.006762602732063604</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02258980002359806</v>
+        <v>0.0234196666579098</v>
       </c>
     </row>
     <row r="5">
@@ -2542,19 +2542,19 @@
         <v>424277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>418090</v>
+        <v>417641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427340</v>
+        <v>427265</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9887796574439707</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9743590325331851</v>
+        <v>0.9733145419176801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9959168036892874</v>
+        <v>0.9957419468640232</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>327</v>
@@ -2563,19 +2563,19 @@
         <v>341576</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>334924</v>
+        <v>334870</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344982</v>
+        <v>344979</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.984214141134791</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9650472931610985</v>
+        <v>0.9648899931507297</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9940273260938139</v>
+        <v>0.9940173725229047</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>718</v>
@@ -2584,19 +2584,19 @@
         <v>765854</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>758614</v>
+        <v>757970</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>771217</v>
+        <v>770898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9867381820463333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.977410199976402</v>
+        <v>0.9765803333420903</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9936486643318508</v>
+        <v>0.9932373972679364</v>
       </c>
     </row>
     <row r="6">
@@ -2688,19 +2688,19 @@
         <v>4715</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1798</v>
+        <v>1820</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10405</v>
+        <v>10701</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01249882574388934</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004765326631393771</v>
+        <v>0.004823610433224043</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02758292082875804</v>
+        <v>0.02836812090748531</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2722,19 +2722,19 @@
         <v>4715</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1799</v>
+        <v>1778</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10419</v>
+        <v>10205</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006290717570603886</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002400268000526764</v>
+        <v>0.002372324604786229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01390163227547035</v>
+        <v>0.01361625146600088</v>
       </c>
     </row>
     <row r="8">
@@ -2751,19 +2751,19 @@
         <v>372512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>366822</v>
+        <v>366526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375429</v>
+        <v>375407</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9875011742561106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.972417079171241</v>
+        <v>0.9716318790925141</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9952346733686063</v>
+        <v>0.9951763895667759</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -2785,19 +2785,19 @@
         <v>744785</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>739081</v>
+        <v>739295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747701</v>
+        <v>747722</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9937092824293962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9860983677245301</v>
+        <v>0.9863837485339988</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9975997319994733</v>
+        <v>0.9976276753952137</v>
       </c>
     </row>
     <row r="9">
@@ -2889,19 +2889,19 @@
         <v>14967</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7975</v>
+        <v>8733</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24292</v>
+        <v>25523</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02867628205388858</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01528021816103985</v>
+        <v>0.01673233842711134</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04654408474396588</v>
+        <v>0.04890255155439781</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2923,19 +2923,19 @@
         <v>14967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8763</v>
+        <v>8049</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25776</v>
+        <v>24866</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02175254410915714</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01273589616180617</v>
+        <v>0.01169875972042396</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03746383386019086</v>
+        <v>0.03613998273527216</v>
       </c>
     </row>
     <row r="11">
@@ -2952,19 +2952,19 @@
         <v>506947</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>497622</v>
+        <v>496391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>513939</v>
+        <v>513181</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9713237179461114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9534559152560341</v>
+        <v>0.9510974484456022</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9847197818389603</v>
+        <v>0.9832676615728887</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -2986,19 +2986,19 @@
         <v>673069</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>662260</v>
+        <v>663170</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>679273</v>
+        <v>679987</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9782474558908428</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9625361661398091</v>
+        <v>0.9638600172647279</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9872641038381939</v>
+        <v>0.988301240279576</v>
       </c>
     </row>
     <row r="12">
@@ -3090,19 +3090,19 @@
         <v>23761</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15583</v>
+        <v>15122</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35658</v>
+        <v>34789</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02066832197105625</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01355455297215128</v>
+        <v>0.01315370260814587</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0310164120988679</v>
+        <v>0.03026108286836004</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3111,19 +3111,19 @@
         <v>8909</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4233</v>
+        <v>4264</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16008</v>
+        <v>16872</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01078770725391064</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005125939321406569</v>
+        <v>0.005162888154450037</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01938274035560725</v>
+        <v>0.02042907000285094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -3132,19 +3132,19 @@
         <v>32670</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22155</v>
+        <v>22604</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45196</v>
+        <v>47031</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01653767029566907</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01121478406325636</v>
+        <v>0.0114419837244392</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02287789969657824</v>
+        <v>0.02380721414874648</v>
       </c>
     </row>
     <row r="14">
@@ -3161,19 +3161,19 @@
         <v>1125877</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1113980</v>
+        <v>1114849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1134055</v>
+        <v>1134516</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9793316780289437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9689835879011321</v>
+        <v>0.9697389171316405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9864454470278488</v>
+        <v>0.9868462973918541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>790</v>
@@ -3182,19 +3182,19 @@
         <v>816967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>809868</v>
+        <v>809004</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821643</v>
+        <v>821612</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9892122927460894</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9806172596443928</v>
+        <v>0.9795709299971491</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9948740606785935</v>
+        <v>0.9948371118455499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1870</v>
@@ -3203,19 +3203,19 @@
         <v>1942844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1930318</v>
+        <v>1928483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1953359</v>
+        <v>1952910</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9834623297043309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9771221003034217</v>
+        <v>0.9761927858512536</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9887852159367436</v>
+        <v>0.9885580162755607</v>
       </c>
     </row>
     <row r="15">
@@ -3307,19 +3307,19 @@
         <v>18517</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11689</v>
+        <v>11128</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27873</v>
+        <v>27759</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0298328434012696</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01883203947889453</v>
+        <v>0.01792783627589697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04490494093973452</v>
+        <v>0.04472213458120321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3328,19 +3328,19 @@
         <v>12108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5857</v>
+        <v>6062</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21119</v>
+        <v>21319</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0164011667190288</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007933799715194119</v>
+        <v>0.008210723801806567</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0286065187116384</v>
+        <v>0.02887760815144259</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -3349,19 +3349,19 @@
         <v>30625</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21608</v>
+        <v>21321</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43683</v>
+        <v>43050</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02253613904447081</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01590084627511931</v>
+        <v>0.01568966797702849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03214456438082531</v>
+        <v>0.0316786538772143</v>
       </c>
     </row>
     <row r="17">
@@ -3378,19 +3378,19 @@
         <v>602189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>592833</v>
+        <v>592947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>609017</v>
+        <v>609578</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9701671565987304</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9550950590602658</v>
+        <v>0.9552778654187969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9811679605211057</v>
+        <v>0.9820721637241031</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>689</v>
@@ -3399,19 +3399,19 @@
         <v>726136</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>717125</v>
+        <v>716925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>732387</v>
+        <v>732182</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9835988332809712</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9713934812883616</v>
+        <v>0.9711223918485574</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9920662002848059</v>
+        <v>0.9917892761981933</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1266</v>
@@ -3420,19 +3420,19 @@
         <v>1328325</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1315267</v>
+        <v>1315900</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1337342</v>
+        <v>1337629</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9774638609555292</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9678554356191746</v>
+        <v>0.9683213461227853</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9840991537248807</v>
+        <v>0.9843103320229715</v>
       </c>
     </row>
     <row r="18">
@@ -3537,19 +3537,19 @@
         <v>18055</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10289</v>
+        <v>10326</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27913</v>
+        <v>27573</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01668627276996675</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009508702753138386</v>
+        <v>0.009543360155481122</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02579685467247284</v>
+        <v>0.02548252850721065</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -3558,19 +3558,19 @@
         <v>18055</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11081</v>
+        <v>10094</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28884</v>
+        <v>28398</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01318679333637593</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008093450668516756</v>
+        <v>0.007372552911695737</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02109622537310672</v>
+        <v>0.02074117906878812</v>
       </c>
     </row>
     <row r="20">
@@ -3600,19 +3600,19 @@
         <v>1063970</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1054112</v>
+        <v>1054452</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1071736</v>
+        <v>1071699</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9833137272300333</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9742031453275274</v>
+        <v>0.9745174714927894</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9904912972468618</v>
+        <v>0.9904566398445189</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1248</v>
@@ -3621,19 +3621,19 @@
         <v>1351115</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1340286</v>
+        <v>1340772</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1358089</v>
+        <v>1359076</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.986813206663624</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9789037746268933</v>
+        <v>0.9792588209312119</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9919065493314833</v>
+        <v>0.9926274470883042</v>
       </c>
     </row>
     <row r="21">
@@ -3725,19 +3725,19 @@
         <v>66775</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52719</v>
+        <v>51958</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83498</v>
+        <v>83112</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01972238474641204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01557084424785087</v>
+        <v>0.01534629093304735</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02466188219601624</v>
+        <v>0.02454781835679175</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -3746,19 +3746,19 @@
         <v>44551</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32345</v>
+        <v>33182</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62076</v>
+        <v>60423</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01261494689029377</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009158686459022923</v>
+        <v>0.009395760405023998</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01757721146446404</v>
+        <v>0.01710923218305541</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -3767,19 +3767,19 @@
         <v>111325</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91506</v>
+        <v>89885</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>134029</v>
+        <v>132996</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01609372432774561</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01322860570453178</v>
+        <v>0.01299419373133824</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01937592292079745</v>
+        <v>0.01922648803373572</v>
       </c>
     </row>
     <row r="23">
@@ -3796,19 +3796,19 @@
         <v>3318947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3302224</v>
+        <v>3302610</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3333003</v>
+        <v>3333764</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9802776152535879</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9753381178039837</v>
+        <v>0.975452181643208</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9844291557521494</v>
+        <v>0.9846537090669524</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3287</v>
@@ -3817,19 +3817,19 @@
         <v>3487045</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3469520</v>
+        <v>3471173</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3499251</v>
+        <v>3498414</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9873850531097063</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9824227885355357</v>
+        <v>0.9828907678169447</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.990841313540977</v>
+        <v>0.9906042395949761</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6444</v>
@@ -3838,19 +3838,19 @@
         <v>6805993</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6783289</v>
+        <v>6784322</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6825812</v>
+        <v>6827433</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9839062756722544</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9806240770792026</v>
+        <v>0.9807735119662643</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9867713942954682</v>
+        <v>0.9870058062686617</v>
       </c>
     </row>
     <row r="24">
